--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.273598979833289</v>
+        <v>0.407482</v>
       </c>
       <c r="H2">
-        <v>0.273598979833289</v>
+        <v>1.222446</v>
       </c>
       <c r="I2">
-        <v>0.003981027547328733</v>
+        <v>0.005834649273905841</v>
       </c>
       <c r="J2">
-        <v>0.003981027547328733</v>
+        <v>0.005834649273905841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>22.6846184216012</v>
+        <v>121.3556029044846</v>
       </c>
       <c r="R2">
-        <v>22.6846184216012</v>
+        <v>1092.200426140362</v>
       </c>
       <c r="S2">
-        <v>0.002737859578047969</v>
+        <v>0.00516492279881521</v>
       </c>
       <c r="T2">
-        <v>0.002737859578047969</v>
+        <v>0.005164922798815211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.273598979833289</v>
+        <v>0.407482</v>
       </c>
       <c r="H3">
-        <v>0.273598979833289</v>
+        <v>1.222446</v>
       </c>
       <c r="I3">
-        <v>0.003981027547328733</v>
+        <v>0.005834649273905841</v>
       </c>
       <c r="J3">
-        <v>0.003981027547328733</v>
+        <v>0.005834649273905841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>6.518853933138246</v>
+        <v>9.918252189635332</v>
       </c>
       <c r="R3">
-        <v>6.518853933138246</v>
+        <v>89.264269706718</v>
       </c>
       <c r="S3">
-        <v>0.0007867757062090549</v>
+        <v>0.0004221231293207421</v>
       </c>
       <c r="T3">
-        <v>0.0007867757062090549</v>
+        <v>0.0004221231293207422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.273598979833289</v>
+        <v>0.407482</v>
       </c>
       <c r="H4">
-        <v>0.273598979833289</v>
+        <v>1.222446</v>
       </c>
       <c r="I4">
-        <v>0.003981027547328733</v>
+        <v>0.005834649273905841</v>
       </c>
       <c r="J4">
-        <v>0.003981027547328733</v>
+        <v>0.005834649273905841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>3.781451912787379</v>
+        <v>5.817715864787999</v>
       </c>
       <c r="R4">
-        <v>3.781451912787379</v>
+        <v>52.359442783092</v>
       </c>
       <c r="S4">
-        <v>0.0004563922630717084</v>
+        <v>0.0002476033457698892</v>
       </c>
       <c r="T4">
-        <v>0.0004563922630717084</v>
+        <v>0.0002476033457698892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.31635442501479</v>
+        <v>69.26966233333333</v>
       </c>
       <c r="H5">
-        <v>68.31635442501479</v>
+        <v>207.808987</v>
       </c>
       <c r="I5">
-        <v>0.9940435050773033</v>
+        <v>0.9918577631328162</v>
       </c>
       <c r="J5">
-        <v>0.9940435050773033</v>
+        <v>0.9918577631328162</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>5664.240535657766</v>
+        <v>20629.77416291208</v>
       </c>
       <c r="R5">
-        <v>5664.240535657766</v>
+        <v>185667.9674662087</v>
       </c>
       <c r="S5">
-        <v>0.6836304192867064</v>
+        <v>0.8780080058791911</v>
       </c>
       <c r="T5">
-        <v>0.6836304192867064</v>
+        <v>0.8780080058791913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.31635442501479</v>
+        <v>69.26966233333333</v>
       </c>
       <c r="H6">
-        <v>68.31635442501479</v>
+        <v>207.808987</v>
       </c>
       <c r="I6">
-        <v>0.9940435050773033</v>
+        <v>0.9918577631328162</v>
       </c>
       <c r="J6">
-        <v>0.9940435050773033</v>
+        <v>0.9918577631328162</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>1627.726594640572</v>
+        <v>1686.047433047063</v>
       </c>
       <c r="R6">
-        <v>1627.726594640572</v>
+        <v>15174.42689742357</v>
       </c>
       <c r="S6">
-        <v>0.1964541243213705</v>
+        <v>0.07175857247961336</v>
       </c>
       <c r="T6">
-        <v>0.1964541243213705</v>
+        <v>0.07175857247961337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.31635442501479</v>
+        <v>69.26966233333333</v>
       </c>
       <c r="H7">
-        <v>68.31635442501479</v>
+        <v>207.808987</v>
       </c>
       <c r="I7">
-        <v>0.9940435050773033</v>
+        <v>0.9918577631328162</v>
       </c>
       <c r="J7">
-        <v>0.9940435050773033</v>
+        <v>0.9918577631328162</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>944.2104253186285</v>
+        <v>988.979178233986</v>
       </c>
       <c r="R7">
-        <v>944.2104253186285</v>
+        <v>8900.812604105875</v>
       </c>
       <c r="S7">
-        <v>0.1139589614692264</v>
+        <v>0.04209118477401162</v>
       </c>
       <c r="T7">
-        <v>0.1139589614692264</v>
+        <v>0.04209118477401163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.135765415378062</v>
+        <v>0.161158</v>
       </c>
       <c r="H8">
-        <v>0.135765415378062</v>
+        <v>0.483474</v>
       </c>
       <c r="I8">
-        <v>0.001975467375367865</v>
+        <v>0.002307587593278029</v>
       </c>
       <c r="J8">
-        <v>0.001975467375367865</v>
+        <v>0.002307587593278029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>11.25657209898267</v>
+        <v>47.99580411620866</v>
       </c>
       <c r="R8">
-        <v>11.25657209898267</v>
+        <v>431.962237045878</v>
       </c>
       <c r="S8">
-        <v>0.001358581976756561</v>
+        <v>0.002042712631260918</v>
       </c>
       <c r="T8">
-        <v>0.001358581976756561</v>
+        <v>0.002042712631260919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.135765415378062</v>
+        <v>0.161158</v>
       </c>
       <c r="H9">
-        <v>0.135765415378062</v>
+        <v>0.483474</v>
       </c>
       <c r="I9">
-        <v>0.001975467375367865</v>
+        <v>0.002307587593278029</v>
       </c>
       <c r="J9">
-        <v>0.001975467375367865</v>
+        <v>0.002307587593278029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>3.234788786715148</v>
+        <v>3.922641212071333</v>
       </c>
       <c r="R9">
-        <v>3.234788786715148</v>
+        <v>35.303770908642</v>
       </c>
       <c r="S9">
-        <v>0.000390414213634593</v>
+        <v>0.0001669485260086879</v>
       </c>
       <c r="T9">
-        <v>0.000390414213634593</v>
+        <v>0.000166948526008688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.135765415378062</v>
+        <v>0.161158</v>
       </c>
       <c r="H10">
-        <v>0.135765415378062</v>
+        <v>0.483474</v>
       </c>
       <c r="I10">
-        <v>0.001975467375367865</v>
+        <v>0.002307587593278029</v>
       </c>
       <c r="J10">
-        <v>0.001975467375367865</v>
+        <v>0.002307587593278029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>1.876433859455791</v>
+        <v>2.300890476972</v>
       </c>
       <c r="R10">
-        <v>1.876433859455791</v>
+        <v>20.708014292748</v>
       </c>
       <c r="S10">
-        <v>0.0002264711849767111</v>
+        <v>9.792643600842198E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002264711849767111</v>
+        <v>9.792643600842202E-05</v>
       </c>
     </row>
   </sheetData>
